--- a/UniExcel1.xlsx
+++ b/UniExcel1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my project\uni proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57BF2D3-8099-4FF4-BCAC-81F3D2875728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7823514-105D-47AB-AE64-450F1AC26A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2455B7ED-0D57-478E-88C6-F9ED9F3C2D38}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="267">
   <si>
     <t>گروه</t>
   </si>
@@ -826,6 +820,12 @@
   </si>
   <si>
     <t>درس تست121</t>
+  </si>
+  <si>
+    <t>کد درس</t>
+  </si>
+  <si>
+    <t>کد ارائه</t>
   </si>
 </sst>
 </file>
@@ -1263,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B159A655-8287-4219-8D59-08FE8B27D139}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1279,9 +1279,11 @@
     <col min="6" max="6" width="17" style="5" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1306,8 +1308,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1332,8 +1340,14 @@
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I2" s="1">
+        <v>144001</v>
+      </c>
+      <c r="J2" s="1">
+        <v>133001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1358,8 +1372,14 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I3" s="1">
+        <v>144002</v>
+      </c>
+      <c r="J3" s="1">
+        <v>133002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1384,8 +1404,14 @@
       <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I4" s="1">
+        <v>144003</v>
+      </c>
+      <c r="J4" s="1">
+        <v>133003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1410,8 +1436,14 @@
       <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I5" s="1">
+        <v>144004</v>
+      </c>
+      <c r="J5" s="1">
+        <v>133004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1436,8 +1468,14 @@
       <c r="H6" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I6" s="1">
+        <v>144005</v>
+      </c>
+      <c r="J6" s="1">
+        <v>133005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1462,8 +1500,14 @@
       <c r="H7" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I7" s="1">
+        <v>144006</v>
+      </c>
+      <c r="J7" s="1">
+        <v>133006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -1488,8 +1532,14 @@
       <c r="H8" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I8" s="1">
+        <v>144007</v>
+      </c>
+      <c r="J8" s="1">
+        <v>133007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1514,8 +1564,14 @@
       <c r="H9" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I9" s="1">
+        <v>144008</v>
+      </c>
+      <c r="J9" s="1">
+        <v>133008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1540,8 +1596,14 @@
       <c r="H10" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <v>144009</v>
+      </c>
+      <c r="J10" s="1">
+        <v>133009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1566,8 +1628,14 @@
       <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <v>144010</v>
+      </c>
+      <c r="J11" s="1">
+        <v>133010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1592,8 +1660,14 @@
       <c r="H12" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I12" s="1">
+        <v>144011</v>
+      </c>
+      <c r="J12" s="1">
+        <v>133011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1618,8 +1692,14 @@
       <c r="H13" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I13" s="1">
+        <v>144012</v>
+      </c>
+      <c r="J13" s="1">
+        <v>133012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1644,8 +1724,14 @@
       <c r="H14" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I14" s="1">
+        <v>144013</v>
+      </c>
+      <c r="J14" s="1">
+        <v>133013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1670,8 +1756,14 @@
       <c r="H15" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I15" s="1">
+        <v>144014</v>
+      </c>
+      <c r="J15" s="1">
+        <v>133014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -1696,8 +1788,14 @@
       <c r="H16" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I16" s="1">
+        <v>144015</v>
+      </c>
+      <c r="J16" s="1">
+        <v>133015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1722,8 +1820,14 @@
       <c r="H17" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I17" s="1">
+        <v>144016</v>
+      </c>
+      <c r="J17" s="1">
+        <v>133016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1748,8 +1852,14 @@
       <c r="H18" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I18" s="1">
+        <v>144017</v>
+      </c>
+      <c r="J18" s="1">
+        <v>133017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1774,8 +1884,14 @@
       <c r="H19" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I19" s="1">
+        <v>144018</v>
+      </c>
+      <c r="J19" s="1">
+        <v>133018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1800,8 +1916,14 @@
       <c r="H20" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I20" s="1">
+        <v>144019</v>
+      </c>
+      <c r="J20" s="1">
+        <v>133019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1826,8 +1948,14 @@
       <c r="H21" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I21" s="1">
+        <v>144020</v>
+      </c>
+      <c r="J21" s="1">
+        <v>133020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1852,8 +1980,14 @@
       <c r="H22" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I22" s="1">
+        <v>144021</v>
+      </c>
+      <c r="J22" s="1">
+        <v>133021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1878,8 +2012,14 @@
       <c r="H23" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I23" s="1">
+        <v>144022</v>
+      </c>
+      <c r="J23" s="1">
+        <v>133022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -1904,8 +2044,14 @@
       <c r="H24" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I24" s="1">
+        <v>144023</v>
+      </c>
+      <c r="J24" s="1">
+        <v>133023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1930,8 +2076,14 @@
       <c r="H25" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I25" s="1">
+        <v>144024</v>
+      </c>
+      <c r="J25" s="1">
+        <v>133024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1956,8 +2108,14 @@
       <c r="H26" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I26" s="1">
+        <v>144025</v>
+      </c>
+      <c r="J26" s="1">
+        <v>133025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1982,8 +2140,14 @@
       <c r="H27" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I27" s="1">
+        <v>144026</v>
+      </c>
+      <c r="J27" s="1">
+        <v>133026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -2008,8 +2172,14 @@
       <c r="H28" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I28" s="1">
+        <v>144027</v>
+      </c>
+      <c r="J28" s="1">
+        <v>133027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -2034,8 +2204,14 @@
       <c r="H29" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I29" s="1">
+        <v>144028</v>
+      </c>
+      <c r="J29" s="1">
+        <v>133028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2236,14 @@
       <c r="H30" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I30" s="1">
+        <v>144029</v>
+      </c>
+      <c r="J30" s="1">
+        <v>133029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2086,8 +2268,14 @@
       <c r="H31" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I31" s="1">
+        <v>144030</v>
+      </c>
+      <c r="J31" s="1">
+        <v>133030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -2112,8 +2300,14 @@
       <c r="H32" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I32" s="1">
+        <v>144031</v>
+      </c>
+      <c r="J32" s="1">
+        <v>133031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -2138,8 +2332,14 @@
       <c r="H33" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I33" s="1">
+        <v>144032</v>
+      </c>
+      <c r="J33" s="1">
+        <v>133032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -2164,8 +2364,14 @@
       <c r="H34" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I34" s="1">
+        <v>144033</v>
+      </c>
+      <c r="J34" s="1">
+        <v>133033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -2190,8 +2396,14 @@
       <c r="H35" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I35" s="1">
+        <v>144034</v>
+      </c>
+      <c r="J35" s="1">
+        <v>133034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
@@ -2216,8 +2428,14 @@
       <c r="H36" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I36" s="1">
+        <v>144035</v>
+      </c>
+      <c r="J36" s="1">
+        <v>133035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -2242,8 +2460,14 @@
       <c r="H37" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I37" s="1">
+        <v>144036</v>
+      </c>
+      <c r="J37" s="1">
+        <v>133036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>25</v>
       </c>
@@ -2268,8 +2492,14 @@
       <c r="H38" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I38" s="1">
+        <v>144037</v>
+      </c>
+      <c r="J38" s="1">
+        <v>133037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -2294,8 +2524,14 @@
       <c r="H39" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I39" s="1">
+        <v>144038</v>
+      </c>
+      <c r="J39" s="1">
+        <v>133038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
@@ -2320,8 +2556,14 @@
       <c r="H40" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I40" s="1">
+        <v>144039</v>
+      </c>
+      <c r="J40" s="1">
+        <v>133039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>36</v>
       </c>
@@ -2346,8 +2588,14 @@
       <c r="H41" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I41" s="1">
+        <v>144040</v>
+      </c>
+      <c r="J41" s="1">
+        <v>133040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2372,8 +2620,14 @@
       <c r="H42" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I42" s="1">
+        <v>144041</v>
+      </c>
+      <c r="J42" s="1">
+        <v>133041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -2398,8 +2652,14 @@
       <c r="H43" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I43" s="1">
+        <v>144042</v>
+      </c>
+      <c r="J43" s="1">
+        <v>133042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
@@ -2424,8 +2684,14 @@
       <c r="H44" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I44" s="1">
+        <v>144043</v>
+      </c>
+      <c r="J44" s="1">
+        <v>133043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -2450,8 +2716,14 @@
       <c r="H45" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I45" s="1">
+        <v>144044</v>
+      </c>
+      <c r="J45" s="1">
+        <v>133044</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>25</v>
       </c>
@@ -2476,8 +2748,14 @@
       <c r="H46" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I46" s="1">
+        <v>144045</v>
+      </c>
+      <c r="J46" s="1">
+        <v>133045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
@@ -2502,8 +2780,14 @@
       <c r="H47" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I47" s="1">
+        <v>144046</v>
+      </c>
+      <c r="J47" s="1">
+        <v>133046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>33</v>
       </c>
@@ -2528,8 +2812,14 @@
       <c r="H48" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I48" s="1">
+        <v>144047</v>
+      </c>
+      <c r="J48" s="1">
+        <v>133047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>36</v>
       </c>
@@ -2554,8 +2844,14 @@
       <c r="H49" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I49" s="1">
+        <v>144048</v>
+      </c>
+      <c r="J49" s="1">
+        <v>133048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -2580,8 +2876,14 @@
       <c r="H50" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I50" s="1">
+        <v>144049</v>
+      </c>
+      <c r="J50" s="1">
+        <v>133049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -2606,8 +2908,14 @@
       <c r="H51" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I51" s="1">
+        <v>144050</v>
+      </c>
+      <c r="J51" s="1">
+        <v>133050</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>25</v>
       </c>
@@ -2632,8 +2940,14 @@
       <c r="H52" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I52" s="1">
+        <v>144051</v>
+      </c>
+      <c r="J52" s="1">
+        <v>133051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
@@ -2658,8 +2972,14 @@
       <c r="H53" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I53" s="1">
+        <v>144052</v>
+      </c>
+      <c r="J53" s="1">
+        <v>133052</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>33</v>
       </c>
@@ -2684,8 +3004,14 @@
       <c r="H54" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I54" s="1">
+        <v>144053</v>
+      </c>
+      <c r="J54" s="1">
+        <v>133053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>36</v>
       </c>
@@ -2710,8 +3036,14 @@
       <c r="H55" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I55" s="1">
+        <v>144054</v>
+      </c>
+      <c r="J55" s="1">
+        <v>133054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -2736,8 +3068,14 @@
       <c r="H56" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I56" s="1">
+        <v>144055</v>
+      </c>
+      <c r="J56" s="1">
+        <v>133055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
@@ -2762,8 +3100,14 @@
       <c r="H57" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I57" s="1">
+        <v>144056</v>
+      </c>
+      <c r="J57" s="1">
+        <v>133056</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>25</v>
       </c>
@@ -2788,8 +3132,14 @@
       <c r="H58" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I58" s="1">
+        <v>144057</v>
+      </c>
+      <c r="J58" s="1">
+        <v>133057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>29</v>
       </c>
@@ -2814,8 +3164,14 @@
       <c r="H59" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I59" s="1">
+        <v>144058</v>
+      </c>
+      <c r="J59" s="1">
+        <v>133058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>33</v>
       </c>
@@ -2840,8 +3196,14 @@
       <c r="H60" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I60" s="1">
+        <v>144059</v>
+      </c>
+      <c r="J60" s="1">
+        <v>133059</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>36</v>
       </c>
@@ -2866,8 +3228,14 @@
       <c r="H61" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I61" s="1">
+        <v>144060</v>
+      </c>
+      <c r="J61" s="1">
+        <v>133060</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
@@ -2892,8 +3260,14 @@
       <c r="H62" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I62" s="1">
+        <v>144061</v>
+      </c>
+      <c r="J62" s="1">
+        <v>133061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
@@ -2918,8 +3292,14 @@
       <c r="H63" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I63" s="1">
+        <v>144062</v>
+      </c>
+      <c r="J63" s="1">
+        <v>133062</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>25</v>
       </c>
@@ -2944,8 +3324,14 @@
       <c r="H64" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I64" s="1">
+        <v>144063</v>
+      </c>
+      <c r="J64" s="1">
+        <v>133063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>29</v>
       </c>
@@ -2970,8 +3356,14 @@
       <c r="H65" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I65" s="1">
+        <v>144064</v>
+      </c>
+      <c r="J65" s="1">
+        <v>133064</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>33</v>
       </c>
@@ -2996,8 +3388,14 @@
       <c r="H66" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I66" s="1">
+        <v>144065</v>
+      </c>
+      <c r="J66" s="1">
+        <v>133065</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>36</v>
       </c>
@@ -3022,8 +3420,14 @@
       <c r="H67" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I67" s="1">
+        <v>144066</v>
+      </c>
+      <c r="J67" s="1">
+        <v>133066</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
@@ -3048,8 +3452,14 @@
       <c r="H68" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I68" s="1">
+        <v>144067</v>
+      </c>
+      <c r="J68" s="1">
+        <v>133067</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -3074,8 +3484,14 @@
       <c r="H69" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I69" s="1">
+        <v>144068</v>
+      </c>
+      <c r="J69" s="1">
+        <v>133068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>25</v>
       </c>
@@ -3100,8 +3516,14 @@
       <c r="H70" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I70" s="1">
+        <v>144069</v>
+      </c>
+      <c r="J70" s="1">
+        <v>133069</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>29</v>
       </c>
@@ -3126,8 +3548,14 @@
       <c r="H71" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I71" s="1">
+        <v>144070</v>
+      </c>
+      <c r="J71" s="1">
+        <v>133070</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>33</v>
       </c>
@@ -3152,8 +3580,14 @@
       <c r="H72" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I72" s="1">
+        <v>144071</v>
+      </c>
+      <c r="J72" s="1">
+        <v>133071</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>36</v>
       </c>
@@ -3178,8 +3612,14 @@
       <c r="H73" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I73" s="1">
+        <v>144072</v>
+      </c>
+      <c r="J73" s="1">
+        <v>133072</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>17</v>
       </c>
@@ -3204,8 +3644,14 @@
       <c r="H74" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I74" s="1">
+        <v>144073</v>
+      </c>
+      <c r="J74" s="1">
+        <v>133073</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>21</v>
       </c>
@@ -3230,8 +3676,14 @@
       <c r="H75" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I75" s="1">
+        <v>144074</v>
+      </c>
+      <c r="J75" s="1">
+        <v>133074</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>25</v>
       </c>
@@ -3256,8 +3708,14 @@
       <c r="H76" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I76" s="1">
+        <v>144075</v>
+      </c>
+      <c r="J76" s="1">
+        <v>133075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>29</v>
       </c>
@@ -3282,8 +3740,14 @@
       <c r="H77" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I77" s="1">
+        <v>144076</v>
+      </c>
+      <c r="J77" s="1">
+        <v>133076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>33</v>
       </c>
@@ -3308,8 +3772,14 @@
       <c r="H78" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I78" s="1">
+        <v>144077</v>
+      </c>
+      <c r="J78" s="1">
+        <v>133077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>36</v>
       </c>
@@ -3334,8 +3804,14 @@
       <c r="H79" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I79" s="1">
+        <v>144078</v>
+      </c>
+      <c r="J79" s="1">
+        <v>133078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>17</v>
       </c>
@@ -3360,8 +3836,14 @@
       <c r="H80" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I80" s="1">
+        <v>144079</v>
+      </c>
+      <c r="J80" s="1">
+        <v>133079</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>21</v>
       </c>
@@ -3386,8 +3868,14 @@
       <c r="H81" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I81" s="1">
+        <v>144080</v>
+      </c>
+      <c r="J81" s="1">
+        <v>133080</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>25</v>
       </c>
@@ -3412,8 +3900,14 @@
       <c r="H82" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I82" s="1">
+        <v>144081</v>
+      </c>
+      <c r="J82" s="1">
+        <v>133081</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>29</v>
       </c>
@@ -3438,8 +3932,14 @@
       <c r="H83" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I83" s="1">
+        <v>144082</v>
+      </c>
+      <c r="J83" s="1">
+        <v>133082</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>33</v>
       </c>
@@ -3464,8 +3964,14 @@
       <c r="H84" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I84" s="1">
+        <v>144083</v>
+      </c>
+      <c r="J84" s="1">
+        <v>133083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>36</v>
       </c>
@@ -3490,8 +3996,14 @@
       <c r="H85" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I85" s="1">
+        <v>144084</v>
+      </c>
+      <c r="J85" s="1">
+        <v>133084</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>17</v>
       </c>
@@ -3516,8 +4028,14 @@
       <c r="H86" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I86" s="1">
+        <v>144085</v>
+      </c>
+      <c r="J86" s="1">
+        <v>133085</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>21</v>
       </c>
@@ -3542,8 +4060,14 @@
       <c r="H87" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I87" s="1">
+        <v>144086</v>
+      </c>
+      <c r="J87" s="1">
+        <v>133086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>25</v>
       </c>
@@ -3568,8 +4092,14 @@
       <c r="H88" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I88" s="1">
+        <v>144087</v>
+      </c>
+      <c r="J88" s="1">
+        <v>133087</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>29</v>
       </c>
@@ -3594,8 +4124,14 @@
       <c r="H89" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I89" s="1">
+        <v>144088</v>
+      </c>
+      <c r="J89" s="1">
+        <v>133088</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>33</v>
       </c>
@@ -3620,8 +4156,14 @@
       <c r="H90" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I90" s="1">
+        <v>144089</v>
+      </c>
+      <c r="J90" s="1">
+        <v>133089</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>36</v>
       </c>
@@ -3646,8 +4188,14 @@
       <c r="H91" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I91" s="1">
+        <v>144090</v>
+      </c>
+      <c r="J91" s="1">
+        <v>133090</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>17</v>
       </c>
@@ -3672,8 +4220,14 @@
       <c r="H92" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I92" s="1">
+        <v>144091</v>
+      </c>
+      <c r="J92" s="1">
+        <v>133091</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>21</v>
       </c>
@@ -3698,8 +4252,14 @@
       <c r="H93" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I93" s="1">
+        <v>144092</v>
+      </c>
+      <c r="J93" s="1">
+        <v>133092</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>25</v>
       </c>
@@ -3724,8 +4284,14 @@
       <c r="H94" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I94" s="1">
+        <v>144093</v>
+      </c>
+      <c r="J94" s="1">
+        <v>133093</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>29</v>
       </c>
@@ -3750,8 +4316,14 @@
       <c r="H95" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I95" s="1">
+        <v>144094</v>
+      </c>
+      <c r="J95" s="1">
+        <v>133094</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>33</v>
       </c>
@@ -3776,8 +4348,14 @@
       <c r="H96" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I96" s="1">
+        <v>144095</v>
+      </c>
+      <c r="J96" s="1">
+        <v>133095</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>36</v>
       </c>
@@ -3802,8 +4380,14 @@
       <c r="H97" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I97" s="1">
+        <v>144096</v>
+      </c>
+      <c r="J97" s="1">
+        <v>133096</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>17</v>
       </c>
@@ -3828,8 +4412,14 @@
       <c r="H98" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I98" s="1">
+        <v>144097</v>
+      </c>
+      <c r="J98" s="1">
+        <v>133097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>21</v>
       </c>
@@ -3854,8 +4444,14 @@
       <c r="H99" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I99" s="1">
+        <v>144098</v>
+      </c>
+      <c r="J99" s="1">
+        <v>133098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>25</v>
       </c>
@@ -3880,8 +4476,14 @@
       <c r="H100" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I100" s="1">
+        <v>144099</v>
+      </c>
+      <c r="J100" s="1">
+        <v>133099</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>29</v>
       </c>
@@ -3906,8 +4508,14 @@
       <c r="H101" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I101" s="1">
+        <v>144100</v>
+      </c>
+      <c r="J101" s="1">
+        <v>133100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>29</v>
       </c>
@@ -3932,8 +4540,14 @@
       <c r="H102" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I102" s="1">
+        <v>144101</v>
+      </c>
+      <c r="J102" s="1">
+        <v>133101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>33</v>
       </c>
@@ -3958,8 +4572,14 @@
       <c r="H103" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I103" s="1">
+        <v>144102</v>
+      </c>
+      <c r="J103" s="1">
+        <v>133102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>36</v>
       </c>
@@ -3984,8 +4604,14 @@
       <c r="H104" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I104" s="1">
+        <v>144103</v>
+      </c>
+      <c r="J104" s="1">
+        <v>133103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>17</v>
       </c>
@@ -4010,8 +4636,14 @@
       <c r="H105" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I105" s="1">
+        <v>144104</v>
+      </c>
+      <c r="J105" s="1">
+        <v>133104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>21</v>
       </c>
@@ -4036,8 +4668,14 @@
       <c r="H106" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I106" s="1">
+        <v>144105</v>
+      </c>
+      <c r="J106" s="1">
+        <v>133105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>25</v>
       </c>
@@ -4062,8 +4700,14 @@
       <c r="H107" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I107" s="1">
+        <v>144106</v>
+      </c>
+      <c r="J107" s="1">
+        <v>133106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>29</v>
       </c>
@@ -4088,8 +4732,14 @@
       <c r="H108" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I108" s="1">
+        <v>144107</v>
+      </c>
+      <c r="J108" s="1">
+        <v>133107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>29</v>
       </c>
@@ -4114,8 +4764,14 @@
       <c r="H109" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I109" s="1">
+        <v>144108</v>
+      </c>
+      <c r="J109" s="1">
+        <v>133108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>33</v>
       </c>
@@ -4140,8 +4796,14 @@
       <c r="H110" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I110" s="1">
+        <v>144109</v>
+      </c>
+      <c r="J110" s="1">
+        <v>133109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>36</v>
       </c>
@@ -4166,8 +4828,14 @@
       <c r="H111" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I111" s="1">
+        <v>144110</v>
+      </c>
+      <c r="J111" s="1">
+        <v>133110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>17</v>
       </c>
@@ -4192,8 +4860,14 @@
       <c r="H112" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I112" s="1">
+        <v>144111</v>
+      </c>
+      <c r="J112" s="1">
+        <v>133111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>21</v>
       </c>
@@ -4218,8 +4892,14 @@
       <c r="H113" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I113" s="1">
+        <v>144112</v>
+      </c>
+      <c r="J113" s="1">
+        <v>133112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>25</v>
       </c>
@@ -4244,8 +4924,14 @@
       <c r="H114" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I114" s="1">
+        <v>144113</v>
+      </c>
+      <c r="J114" s="1">
+        <v>133113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>29</v>
       </c>
@@ -4270,8 +4956,14 @@
       <c r="H115" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I115" s="1">
+        <v>144114</v>
+      </c>
+      <c r="J115" s="1">
+        <v>133114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>29</v>
       </c>
@@ -4296,8 +4988,14 @@
       <c r="H116" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I116" s="1">
+        <v>144115</v>
+      </c>
+      <c r="J116" s="1">
+        <v>133115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>33</v>
       </c>
@@ -4322,8 +5020,14 @@
       <c r="H117" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I117" s="1">
+        <v>144116</v>
+      </c>
+      <c r="J117" s="1">
+        <v>133116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>36</v>
       </c>
@@ -4348,8 +5052,14 @@
       <c r="H118" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I118" s="1">
+        <v>144117</v>
+      </c>
+      <c r="J118" s="1">
+        <v>133117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>17</v>
       </c>
@@ -4374,8 +5084,14 @@
       <c r="H119" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I119" s="1">
+        <v>144118</v>
+      </c>
+      <c r="J119" s="1">
+        <v>133118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>17</v>
       </c>
@@ -4400,8 +5116,14 @@
       <c r="H120" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I120" s="1">
+        <v>144119</v>
+      </c>
+      <c r="J120" s="1">
+        <v>133119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>17</v>
       </c>
@@ -4426,8 +5148,14 @@
       <c r="H121" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="I121" s="1">
+        <v>144120</v>
+      </c>
+      <c r="J121" s="1">
+        <v>133120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>17</v>
       </c>
@@ -4451,6 +5179,12 @@
       </c>
       <c r="H122" s="3" t="s">
         <v>264</v>
+      </c>
+      <c r="I122" s="1">
+        <v>144121</v>
+      </c>
+      <c r="J122" s="1">
+        <v>133121</v>
       </c>
     </row>
   </sheetData>
